--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AD9C5158-A146-4814-A07F-028E54AADB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DB7B9D84-70DD-4D0F-B1C7-48B91E5111E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
+    <sheet name="Organization" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:T28"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>TC_ID</t>
   </si>
@@ -51,6 +52,18 @@
   </si>
   <si>
     <t>Employee</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>Organizationname</t>
+  </si>
+  <si>
+    <t>NewOrganization</t>
+  </si>
+  <si>
+    <t>Oxford</t>
   </si>
 </sst>
 </file>
@@ -393,7 +406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -457,4 +470,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1637D58E-A6A8-4BA2-B967-10DF7A960B6B}">
+  <dimension ref="A2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,16 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DB7B9D84-70DD-4D0F-B1C7-48B91E5111E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Our_Class\Vtiger\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21612FEF-91FF-4785-B6FF-A0F6631DF068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Organization" sheetId="2" r:id="rId2"/>
+    <sheet name="Lead" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:T28"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>TC_ID</t>
   </si>
@@ -64,6 +69,42 @@
   </si>
   <si>
     <t>Oxford</t>
+  </si>
+  <si>
+    <t>Industryname</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>TC_NAME</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>COMPANYNAME</t>
+  </si>
+  <si>
+    <t>NewLead</t>
+  </si>
+  <si>
+    <t>Praveen</t>
+  </si>
+  <si>
+    <t>Versatile</t>
+  </si>
+  <si>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>SALUATION</t>
+  </si>
+  <si>
+    <t>Sakinala</t>
+  </si>
+  <si>
+    <t>Mr.</t>
   </si>
 </sst>
 </file>
@@ -474,19 +515,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1637D58E-A6A8-4BA2-B967-10DF7A960B6B}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,7 +539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -506,6 +548,124 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D7062B-623B-45B4-85DA-7F6FCE54F803}">
+  <dimension ref="A2:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Our_Class\Vtiger\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21612FEF-91FF-4785-B6FF-A0F6631DF068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830AB5DB-52EC-4665-95DA-AF5FED8C6760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>TC_ID</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>Mr.</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>LeadSource</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>AnnualRevenue</t>
+  </si>
+  <si>
+    <t>Test Engineer</t>
   </si>
 </sst>
 </file>
@@ -161,10 +176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,10 +601,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D7062B-623B-45B4-85DA-7F6FCE54F803}">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,9 +614,13 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -614,7 +634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -628,7 +648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -648,7 +668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -666,6 +686,70 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Our_Class\Vtiger\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830AB5DB-52EC-4665-95DA-AF5FED8C6760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC3D51B-5ED8-441C-8339-C279F2F2406B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Organization" sheetId="2" r:id="rId2"/>
     <sheet name="Lead" sheetId="3" r:id="rId3"/>
+    <sheet name="Document" sheetId="4" r:id="rId4"/>
+    <sheet name="Product" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>TC_ID</t>
   </si>
@@ -120,6 +122,48 @@
   </si>
   <si>
     <t>Test Engineer</t>
+  </si>
+  <si>
+    <t>TC_No</t>
+  </si>
+  <si>
+    <t>AssignedToDropDown</t>
+  </si>
+  <si>
+    <t>ResultFile</t>
+  </si>
+  <si>
+    <t>Support Group</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Cloths</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>const schema = { "type": "object", "properties": { "code": { "type" : "string" } }, "required": ["code"], "additionalProperties": false }; pm. test("Validate schema", () =&gt; { pm. response.to.have. jsonSchema(schema); });</t>
+  </si>
+  <si>
+    <t>Vendor Part no</t>
+  </si>
+  <si>
+    <t>Product Sheet</t>
+  </si>
+  <si>
+    <t>PartNumber</t>
+  </si>
+  <si>
+    <t>MFR Part Number</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Vamshi</t>
   </si>
 </sst>
 </file>
@@ -176,11 +220,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D7062B-623B-45B4-85DA-7F6FCE54F803}">
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -739,17 +788,173 @@
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="1">
         <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90B23C1-257F-4547-8B1D-275600656827}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="177.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94DC084-225D-421A-8217-D064023976DC}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1">
+        <v>32564</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1">
+        <v>265</v>
+      </c>
+      <c r="F6" s="1">
+        <v>956</v>
+      </c>
+      <c r="G6" s="1">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
